--- a/teams-and-rosters/CS320-Sp19-103-roster.xlsx
+++ b/teams-and-rosters/CS320-Sp19-103-roster.xlsx
@@ -677,7 +677,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -688,13 +688,19 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1042,7 +1048,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,256 +1061,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="7" t="s">
         <v>46</v>
       </c>
     </row>
